--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 7/NKBH_DLETUKA_140722.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 7/NKBH_DLETUKA_140722.xlsx
@@ -344,6 +344,12 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -379,12 +385,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -426,7 +426,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -800,7 +800,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -822,57 +822,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="17" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="25" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="25"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="25" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="25" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="25"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -933,29 +933,29 @@
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="4" t="s">
         <v>3</v>
       </c>
@@ -964,25 +964,25 @@
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="13" t="s">
         <v>25</v>
       </c>
@@ -1004,50 +1004,50 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="27"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="26"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:14" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -1095,27 +1095,27 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="26"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F16" s="7"/>
@@ -1134,18 +1134,6 @@
     <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="G8:H8"/>
@@ -1159,6 +1147,18 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="1" bottom="0" header="0" footer="0"/>
